--- a/performance2.xlsx
+++ b/performance2.xlsx
@@ -1,85 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\_centrale supelec\cours 2A\ST optimisation transport\projet\projetST7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C0D620-C75E-471F-AE2B-7E0EFA0C9D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="3864" windowWidth="7500" windowHeight="7176" xr2:uid="{DFDC1D18-6D4F-4D12-AD93-03290C40E70E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="analyse" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>KPI performance du programme</t>
-  </si>
-  <si>
-    <t>temps d'execution</t>
-  </si>
-  <si>
-    <t>taille des données d'entrée</t>
-  </si>
-  <si>
-    <t>temps d'exec/Taille donnée</t>
-  </si>
-  <si>
-    <t>Taille mémoire occupée</t>
-  </si>
-  <si>
-    <t>taille mémoire/taille entrée</t>
-  </si>
-  <si>
-    <t>phase</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,27 +70,1733 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Analyse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t xml:space="preserve"> temps d'éxecution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>temps exec</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>Feuil1!$B$4:$B$293</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="290"/>
+                <pt idx="0">
+                  <v>1072</v>
+                </pt>
+                <pt idx="1">
+                  <v>1072</v>
+                </pt>
+                <pt idx="2">
+                  <v>1072</v>
+                </pt>
+                <pt idx="3">
+                  <v>1072</v>
+                </pt>
+                <pt idx="4">
+                  <v>1072</v>
+                </pt>
+                <pt idx="5">
+                  <v>1072</v>
+                </pt>
+                <pt idx="6">
+                  <v>1072</v>
+                </pt>
+                <pt idx="7">
+                  <v>1072</v>
+                </pt>
+                <pt idx="8">
+                  <v>1072</v>
+                </pt>
+                <pt idx="9">
+                  <v>2104</v>
+                </pt>
+                <pt idx="10">
+                  <v>2104</v>
+                </pt>
+                <pt idx="11">
+                  <v>2104</v>
+                </pt>
+                <pt idx="12">
+                  <v>2104</v>
+                </pt>
+                <pt idx="13">
+                  <v>2104</v>
+                </pt>
+                <pt idx="14">
+                  <v>1504</v>
+                </pt>
+                <pt idx="15">
+                  <v>1072</v>
+                </pt>
+                <pt idx="16">
+                  <v>1072</v>
+                </pt>
+                <pt idx="17">
+                  <v>1504</v>
+                </pt>
+                <pt idx="18">
+                  <v>1504</v>
+                </pt>
+                <pt idx="19">
+                  <v>2104</v>
+                </pt>
+                <pt idx="20">
+                  <v>2512</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>Feuil1!$A$4:$A$337</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="334"/>
+                <pt idx="0">
+                  <v>0.403477668762207</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.3860709667205811</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.4020886421203613</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.3994669914245605</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.4072997570037842</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.475837230682373</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.4053475856781006</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.3971641063690186</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.4509961605072021</v>
+                </pt>
+                <pt idx="9">
+                  <v>73.1905562877655</v>
+                </pt>
+                <pt idx="10">
+                  <v>73.15101289749146</v>
+                </pt>
+                <pt idx="11">
+                  <v>73.69246459007263</v>
+                </pt>
+                <pt idx="12">
+                  <v>67.5618212223053</v>
+                </pt>
+                <pt idx="13">
+                  <v>71.739741563797</v>
+                </pt>
+                <pt idx="14">
+                  <v>155.7145357131958</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.4114823341369629</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.4302079677581787</v>
+                </pt>
+                <pt idx="17">
+                  <v>153.039660692215</v>
+                </pt>
+                <pt idx="18">
+                  <v>163.4570999145508</v>
+                </pt>
+                <pt idx="19">
+                  <v>75.3000476360321</v>
+                </pt>
+                <pt idx="20">
+                  <v>1873.99765753746</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="1600168543"/>
+        <axId val="1600163967"/>
+      </scatterChart>
+      <valAx>
+        <axId val="1600168543"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Taille de l'instance d'entrée</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t xml:space="preserve"> (octet)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1600163967"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="1600163967"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps d'execution  (s)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1600168543"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Analyse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t xml:space="preserve"> taille de mémoire programme</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>taille mémoire</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>Feuil1!$B$4:$B$467</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="464"/>
+                <pt idx="0">
+                  <v>1072</v>
+                </pt>
+                <pt idx="1">
+                  <v>1072</v>
+                </pt>
+                <pt idx="2">
+                  <v>1072</v>
+                </pt>
+                <pt idx="3">
+                  <v>1072</v>
+                </pt>
+                <pt idx="4">
+                  <v>1072</v>
+                </pt>
+                <pt idx="5">
+                  <v>1072</v>
+                </pt>
+                <pt idx="6">
+                  <v>1072</v>
+                </pt>
+                <pt idx="7">
+                  <v>1072</v>
+                </pt>
+                <pt idx="8">
+                  <v>1072</v>
+                </pt>
+                <pt idx="9">
+                  <v>2104</v>
+                </pt>
+                <pt idx="10">
+                  <v>2104</v>
+                </pt>
+                <pt idx="11">
+                  <v>2104</v>
+                </pt>
+                <pt idx="12">
+                  <v>2104</v>
+                </pt>
+                <pt idx="13">
+                  <v>2104</v>
+                </pt>
+                <pt idx="14">
+                  <v>1504</v>
+                </pt>
+                <pt idx="15">
+                  <v>1072</v>
+                </pt>
+                <pt idx="16">
+                  <v>1072</v>
+                </pt>
+                <pt idx="17">
+                  <v>1504</v>
+                </pt>
+                <pt idx="18">
+                  <v>1504</v>
+                </pt>
+                <pt idx="19">
+                  <v>2104</v>
+                </pt>
+                <pt idx="20">
+                  <v>2512</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>Feuil1!$C$4:$C$501</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="498"/>
+                <pt idx="0">
+                  <v>35289620</v>
+                </pt>
+                <pt idx="1">
+                  <v>35289722</v>
+                </pt>
+                <pt idx="2">
+                  <v>35289722</v>
+                </pt>
+                <pt idx="3">
+                  <v>35289620</v>
+                </pt>
+                <pt idx="4">
+                  <v>35289720</v>
+                </pt>
+                <pt idx="5">
+                  <v>35289720</v>
+                </pt>
+                <pt idx="6">
+                  <v>35289720</v>
+                </pt>
+                <pt idx="7">
+                  <v>35289722</v>
+                </pt>
+                <pt idx="8">
+                  <v>35289620</v>
+                </pt>
+                <pt idx="9">
+                  <v>35317598</v>
+                </pt>
+                <pt idx="10">
+                  <v>35317598</v>
+                </pt>
+                <pt idx="11">
+                  <v>35317574</v>
+                </pt>
+                <pt idx="12">
+                  <v>35317674</v>
+                </pt>
+                <pt idx="13">
+                  <v>35317674</v>
+                </pt>
+                <pt idx="14">
+                  <v>35306398</v>
+                </pt>
+                <pt idx="15">
+                  <v>35289800</v>
+                </pt>
+                <pt idx="16">
+                  <v>35289800</v>
+                </pt>
+                <pt idx="17">
+                  <v>35306396</v>
+                </pt>
+                <pt idx="18">
+                  <v>35360860</v>
+                </pt>
+                <pt idx="19">
+                  <v>35371979</v>
+                </pt>
+                <pt idx="20">
+                  <v>35386774</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="1600168543"/>
+        <axId val="1600163967"/>
+      </scatterChart>
+      <valAx>
+        <axId val="1600168543"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="1" i="0" baseline="0">
+                    <effectLst/>
+                  </a:rPr>
+                  <a:t>Taille de l'instance d'entrée (octet)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1000">
+                  <effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1600163967"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="1600163967"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Taille de la mémoire utilisée par le programme (octet)</a:t>
+                </a:r>
+              </a:p>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1600168543"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Analyse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t xml:space="preserve"> log(temps d'éxecution)/taille donnée</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>log (tps exec)</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>Feuil1!$B$4:$B$133</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="130"/>
+                <pt idx="0">
+                  <v>1072</v>
+                </pt>
+                <pt idx="1">
+                  <v>1072</v>
+                </pt>
+                <pt idx="2">
+                  <v>1072</v>
+                </pt>
+                <pt idx="3">
+                  <v>1072</v>
+                </pt>
+                <pt idx="4">
+                  <v>1072</v>
+                </pt>
+                <pt idx="5">
+                  <v>1072</v>
+                </pt>
+                <pt idx="6">
+                  <v>1072</v>
+                </pt>
+                <pt idx="7">
+                  <v>1072</v>
+                </pt>
+                <pt idx="8">
+                  <v>1072</v>
+                </pt>
+                <pt idx="9">
+                  <v>2104</v>
+                </pt>
+                <pt idx="10">
+                  <v>2104</v>
+                </pt>
+                <pt idx="11">
+                  <v>2104</v>
+                </pt>
+                <pt idx="12">
+                  <v>2104</v>
+                </pt>
+                <pt idx="13">
+                  <v>2104</v>
+                </pt>
+                <pt idx="14">
+                  <v>1504</v>
+                </pt>
+                <pt idx="15">
+                  <v>1072</v>
+                </pt>
+                <pt idx="16">
+                  <v>1072</v>
+                </pt>
+                <pt idx="17">
+                  <v>1504</v>
+                </pt>
+                <pt idx="18">
+                  <v>1504</v>
+                </pt>
+                <pt idx="19">
+                  <v>2104</v>
+                </pt>
+                <pt idx="20">
+                  <v>2512</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>Feuil1!$G$4:$G$151</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="148"/>
+                <pt idx="0">
+                  <v>-0.394180497129591</v>
+                </pt>
+                <pt idx="1">
+                  <v>-0.4133328569285061</v>
+                </pt>
+                <pt idx="2">
+                  <v>-0.3956781943283735</v>
+                </pt>
+                <pt idx="3">
+                  <v>-0.3985191012922487</v>
+                </pt>
+                <pt idx="4">
+                  <v>-0.390085849015272</v>
+                </pt>
+                <pt idx="5">
+                  <v>-0.3225415806944206</v>
+                </pt>
+                <pt idx="6">
+                  <v>-0.3921724093737333</v>
+                </pt>
+                <pt idx="7">
+                  <v>-0.4010300076848364</v>
+                </pt>
+                <pt idx="8">
+                  <v>-0.345827155411692</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.864455048043397</v>
+                </pt>
+                <pt idx="10">
+                  <v>1.8642203440327</v>
+                </pt>
+                <pt idx="11">
+                  <v>1.867423081423997</v>
+                </pt>
+                <pt idx="12">
+                  <v>1.829701348065</v>
+                </pt>
+                <pt idx="13">
+                  <v>1.855759807834525</v>
+                </pt>
+                <pt idx="14">
+                  <v>2.19232915518455</v>
+                </pt>
+                <pt idx="15">
+                  <v>-0.3856488052913829</v>
+                </pt>
+                <pt idx="16">
+                  <v>-0.366321550430737</v>
+                </pt>
+                <pt idx="17">
+                  <v>2.184803994135927</v>
+                </pt>
+                <pt idx="18">
+                  <v>2.213403789319839</v>
+                </pt>
+                <pt idx="19">
+                  <v>1.876795250942525</v>
+                </pt>
+                <pt idx="20">
+                  <v>3.272769043691999</v>
+                </pt>
+                <pt idx="21">
+                  <v>0</v>
+                </pt>
+                <pt idx="22">
+                  <v>0</v>
+                </pt>
+                <pt idx="23">
+                  <v>0</v>
+                </pt>
+                <pt idx="24">
+                  <v>0</v>
+                </pt>
+                <pt idx="25">
+                  <v>0</v>
+                </pt>
+                <pt idx="26">
+                  <v>0</v>
+                </pt>
+                <pt idx="27">
+                  <v>0</v>
+                </pt>
+                <pt idx="28">
+                  <v>0</v>
+                </pt>
+                <pt idx="29">
+                  <v>0</v>
+                </pt>
+                <pt idx="30">
+                  <v>0</v>
+                </pt>
+                <pt idx="31">
+                  <v>0</v>
+                </pt>
+                <pt idx="32">
+                  <v>0</v>
+                </pt>
+                <pt idx="33">
+                  <v>0</v>
+                </pt>
+                <pt idx="34">
+                  <v>0</v>
+                </pt>
+                <pt idx="35">
+                  <v>0</v>
+                </pt>
+                <pt idx="36">
+                  <v>0</v>
+                </pt>
+                <pt idx="37">
+                  <v>0</v>
+                </pt>
+                <pt idx="38">
+                  <v>0</v>
+                </pt>
+                <pt idx="39">
+                  <v>0</v>
+                </pt>
+                <pt idx="40">
+                  <v>0</v>
+                </pt>
+                <pt idx="41">
+                  <v>0</v>
+                </pt>
+                <pt idx="42">
+                  <v>0</v>
+                </pt>
+                <pt idx="43">
+                  <v>0</v>
+                </pt>
+                <pt idx="44">
+                  <v>0</v>
+                </pt>
+                <pt idx="45">
+                  <v>0</v>
+                </pt>
+                <pt idx="46">
+                  <v>0</v>
+                </pt>
+                <pt idx="47">
+                  <v>0</v>
+                </pt>
+                <pt idx="48">
+                  <v>0</v>
+                </pt>
+                <pt idx="49">
+                  <v>0</v>
+                </pt>
+                <pt idx="50">
+                  <v>0</v>
+                </pt>
+                <pt idx="51">
+                  <v>0</v>
+                </pt>
+                <pt idx="52">
+                  <v>0</v>
+                </pt>
+                <pt idx="53">
+                  <v>0</v>
+                </pt>
+                <pt idx="54">
+                  <v>0</v>
+                </pt>
+                <pt idx="55">
+                  <v>0</v>
+                </pt>
+                <pt idx="56">
+                  <v>0</v>
+                </pt>
+                <pt idx="57">
+                  <v>0</v>
+                </pt>
+                <pt idx="58">
+                  <v>0</v>
+                </pt>
+                <pt idx="59">
+                  <v>0</v>
+                </pt>
+                <pt idx="60">
+                  <v>0</v>
+                </pt>
+                <pt idx="61">
+                  <v>0</v>
+                </pt>
+                <pt idx="62">
+                  <v>0</v>
+                </pt>
+                <pt idx="63">
+                  <v>0</v>
+                </pt>
+                <pt idx="64">
+                  <v>0</v>
+                </pt>
+                <pt idx="65">
+                  <v>0</v>
+                </pt>
+                <pt idx="66">
+                  <v>0</v>
+                </pt>
+                <pt idx="67">
+                  <v>0</v>
+                </pt>
+                <pt idx="68">
+                  <v>0</v>
+                </pt>
+                <pt idx="69">
+                  <v>0</v>
+                </pt>
+                <pt idx="70">
+                  <v>0</v>
+                </pt>
+                <pt idx="71">
+                  <v>0</v>
+                </pt>
+                <pt idx="72">
+                  <v>0</v>
+                </pt>
+                <pt idx="73">
+                  <v>0</v>
+                </pt>
+                <pt idx="74">
+                  <v>0</v>
+                </pt>
+                <pt idx="75">
+                  <v>0</v>
+                </pt>
+                <pt idx="76">
+                  <v>0</v>
+                </pt>
+                <pt idx="77">
+                  <v>0</v>
+                </pt>
+                <pt idx="78">
+                  <v>0</v>
+                </pt>
+                <pt idx="79">
+                  <v>0</v>
+                </pt>
+                <pt idx="80">
+                  <v>0</v>
+                </pt>
+                <pt idx="81">
+                  <v>0</v>
+                </pt>
+                <pt idx="82">
+                  <v>0</v>
+                </pt>
+                <pt idx="83">
+                  <v>0</v>
+                </pt>
+                <pt idx="84">
+                  <v>0</v>
+                </pt>
+                <pt idx="85">
+                  <v>0</v>
+                </pt>
+                <pt idx="86">
+                  <v>0</v>
+                </pt>
+                <pt idx="87">
+                  <v>0</v>
+                </pt>
+                <pt idx="88">
+                  <v>0</v>
+                </pt>
+                <pt idx="89">
+                  <v>0</v>
+                </pt>
+                <pt idx="90">
+                  <v>0</v>
+                </pt>
+                <pt idx="91">
+                  <v>0</v>
+                </pt>
+                <pt idx="92">
+                  <v>0</v>
+                </pt>
+                <pt idx="93">
+                  <v>0</v>
+                </pt>
+                <pt idx="94">
+                  <v>0</v>
+                </pt>
+                <pt idx="95">
+                  <v>0</v>
+                </pt>
+                <pt idx="96">
+                  <v>0</v>
+                </pt>
+                <pt idx="97">
+                  <v>0</v>
+                </pt>
+                <pt idx="98">
+                  <v>0</v>
+                </pt>
+                <pt idx="99">
+                  <v>0</v>
+                </pt>
+                <pt idx="100">
+                  <v>0</v>
+                </pt>
+                <pt idx="101">
+                  <v>0</v>
+                </pt>
+                <pt idx="102">
+                  <v>0</v>
+                </pt>
+                <pt idx="103">
+                  <v>0</v>
+                </pt>
+                <pt idx="104">
+                  <v>0</v>
+                </pt>
+                <pt idx="105">
+                  <v>0</v>
+                </pt>
+                <pt idx="106">
+                  <v>0</v>
+                </pt>
+                <pt idx="107">
+                  <v>0</v>
+                </pt>
+                <pt idx="108">
+                  <v>0</v>
+                </pt>
+                <pt idx="109">
+                  <v>0</v>
+                </pt>
+                <pt idx="110">
+                  <v>0</v>
+                </pt>
+                <pt idx="111">
+                  <v>0</v>
+                </pt>
+                <pt idx="112">
+                  <v>0</v>
+                </pt>
+                <pt idx="113">
+                  <v>0</v>
+                </pt>
+                <pt idx="114">
+                  <v>0</v>
+                </pt>
+                <pt idx="115">
+                  <v>0</v>
+                </pt>
+                <pt idx="116">
+                  <v>0</v>
+                </pt>
+                <pt idx="117">
+                  <v>0</v>
+                </pt>
+                <pt idx="118">
+                  <v>0</v>
+                </pt>
+                <pt idx="119">
+                  <v>0</v>
+                </pt>
+                <pt idx="120">
+                  <v>0</v>
+                </pt>
+                <pt idx="121">
+                  <v>0</v>
+                </pt>
+                <pt idx="122">
+                  <v>0</v>
+                </pt>
+                <pt idx="123">
+                  <v>0</v>
+                </pt>
+                <pt idx="124">
+                  <v>0</v>
+                </pt>
+                <pt idx="125">
+                  <v>0</v>
+                </pt>
+                <pt idx="126">
+                  <v>0</v>
+                </pt>
+                <pt idx="127">
+                  <v>0</v>
+                </pt>
+                <pt idx="128">
+                  <v>0</v>
+                </pt>
+                <pt idx="129">
+                  <v>0</v>
+                </pt>
+                <pt idx="130">
+                  <v>0</v>
+                </pt>
+                <pt idx="131">
+                  <v>0</v>
+                </pt>
+                <pt idx="132">
+                  <v>0</v>
+                </pt>
+                <pt idx="133">
+                  <v>0</v>
+                </pt>
+                <pt idx="134">
+                  <v>0</v>
+                </pt>
+                <pt idx="135">
+                  <v>0</v>
+                </pt>
+                <pt idx="136">
+                  <v>0</v>
+                </pt>
+                <pt idx="137">
+                  <v>0</v>
+                </pt>
+                <pt idx="138">
+                  <v>0</v>
+                </pt>
+                <pt idx="139">
+                  <v>0</v>
+                </pt>
+                <pt idx="140">
+                  <v>0</v>
+                </pt>
+                <pt idx="141">
+                  <v>0</v>
+                </pt>
+                <pt idx="142">
+                  <v>0</v>
+                </pt>
+                <pt idx="143">
+                  <v>0</v>
+                </pt>
+                <pt idx="144">
+                  <v>0</v>
+                </pt>
+                <pt idx="145">
+                  <v>0</v>
+                </pt>
+                <pt idx="146">
+                  <v>0</v>
+                </pt>
+                <pt idx="147">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="1600168543"/>
+        <axId val="1600163967"/>
+      </scatterChart>
+      <valAx>
+        <axId val="1600168543"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Taille de</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t xml:space="preserve"> l'instance d'entrée</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1600163967"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="1600163967"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t xml:space="preserve"> (temps d'execution)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1600168543"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>45720</colOff>
+      <row>5</row>
+      <rowOff>179070</rowOff>
+    </from>
+    <to>
+      <col>11</col>
+      <colOff>655320</colOff>
+      <row>20</row>
+      <rowOff>179070</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>34636</colOff>
+      <row>6</row>
+      <rowOff>51955</rowOff>
+    </from>
+    <to>
+      <col>18</col>
+      <colOff>644236</colOff>
+      <row>21</row>
+      <rowOff>51955</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>140139</colOff>
+      <row>24</row>
+      <rowOff>17518</rowOff>
+    </from>
+    <to>
+      <col>11</col>
+      <colOff>749739</colOff>
+      <row>39</row>
+      <rowOff>17519</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,49 +2095,2108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7746B20-509B-4093-BB29-DE03236F5B48}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.21875" bestFit="1" customWidth="1"/>
+    <col width="27.21875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="23" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="29.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="23.33203125" customWidth="1" min="4" max="4"/>
+    <col width="23.5546875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="39" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="20.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="27.21875" bestFit="1" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>KPI performance du programme - Données</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>temps d'execution</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>taille des données d'entrée</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Taille mémoire occupée (en octets)</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>temps d'exec/Taille donnée</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>taille mémoire/taille entrée</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>instance</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>log (tpsExec)</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>log(taillePg/tailleData)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0.403477668762207</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>35289620</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.000376378422352805</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>32919.42164179104</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G4" s="1">
+        <f>LOG(A4)</f>
+        <v/>
+      </c>
+      <c r="H4" s="1">
+        <f>LOG(C4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0.3860709667205811</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>35289722</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.0003601408271647211</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>32919.51679104478</v>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G5" s="1">
+        <f>LOG(A5)</f>
+        <v/>
+      </c>
+      <c r="H5" s="1">
+        <f>LOG(C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0.4020886421203613</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>35289722</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.0003750826885451132</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>32919.51679104478</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G6" s="1">
+        <f>LOG(A6)</f>
+        <v/>
+      </c>
+      <c r="H6" s="1">
+        <f>LOG(C6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0.3994669914245605</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>35289620</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.0003726371188661945</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>32919.42164179104</v>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G7" s="1">
+        <f>LOG(A7)</f>
+        <v/>
+      </c>
+      <c r="H7" s="1">
+        <f>LOG(C7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>0.4072997570037842</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>35289720</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.0003799438031751718</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>32919.51492537314</v>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G8" s="1">
+        <f>LOG(A8)</f>
+        <v/>
+      </c>
+      <c r="H8" s="1">
+        <f>LOG(C8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0.475837230682373</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>35289720</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.0004438780136962435</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>32919.51492537314</v>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G9" s="1">
+        <f>LOG(A9)</f>
+        <v/>
+      </c>
+      <c r="H9" s="1">
+        <f>LOG(C9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0.4053475856781006</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>35289720</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.0003781227478340491</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>32919.51492537314</v>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G10" s="1">
+        <f>LOG(A10)</f>
+        <v/>
+      </c>
+      <c r="H10" s="1">
+        <f>LOG(C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0.3971641063690186</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>35289722</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.00037048890519498</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>32919.51679104478</v>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G11" s="1">
+        <f>LOG(A11)</f>
+        <v/>
+      </c>
+      <c r="H11" s="1">
+        <f>LOG(C11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0.4509961605072021</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>35289620</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.0004207053736074647</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>32919.42164179104</v>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G12" s="1">
+        <f>LOG(A12)</f>
+        <v/>
+      </c>
+      <c r="H12" s="1">
+        <f>LOG(C12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>73.1905562877655</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>35317598</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.03478638606832961</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>16785.93060836502</v>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceItalyV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G13" s="1">
+        <f>LOG(A13)</f>
+        <v/>
+      </c>
+      <c r="H13" s="1">
+        <f>LOG(C13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>73.15101289749146</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>35317598</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.03476759168131723</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>16785.93060836502</v>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceItalyV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G14" s="1">
+        <f>LOG(A14)</f>
+        <v/>
+      </c>
+      <c r="H14" s="1">
+        <f>LOG(C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>73.69246459007263</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>35317574</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.0350249356416695</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>16785.91920152091</v>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceItalyV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G15" s="1">
+        <f>LOG(A15)</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>LOG(C15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>67.5618212223053</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>35317674</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.03211113175965081</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>16785.96673003802</v>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceItalyV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G16" s="1">
+        <f>LOG(A16)</f>
+        <v/>
+      </c>
+      <c r="H16" s="1">
+        <f>LOG(C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>71.739741563797</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>35317674</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.03409683534400998</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>16785.96673003802</v>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceItalyV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G17" s="1">
+        <f>LOG(A17)</f>
+        <v/>
+      </c>
+      <c r="H17" s="1">
+        <f>LOG(C17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>155.7145357131958</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>35306398</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.1035336008731355</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>23474.99867021276</v>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstancePolandV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G18" s="1">
+        <f>LOG(A18)</f>
+        <v/>
+      </c>
+      <c r="H18" s="1">
+        <f>LOG(C18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0.4114823341369629</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>35289800</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.0003838454609486594</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>32919.58955223881</v>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G19" s="1">
+        <f>LOG(A19)</f>
+        <v/>
+      </c>
+      <c r="H19" s="1">
+        <f>LOG(C19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>0.4302079677581787</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>35289800</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.0004013134027594951</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>32919.58955223881</v>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G20" s="1">
+        <f>LOG(A20)</f>
+        <v/>
+      </c>
+      <c r="H20" s="1">
+        <f>LOG(C20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>153.039660692215</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>35306396</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.1017550935453557</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>23474.99734042553</v>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstancePolandV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G21" s="1">
+        <f>LOG(A21)</f>
+        <v/>
+      </c>
+      <c r="H21" s="1">
+        <f>LOG(C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>163.4570999145508</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>35360860</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.1086815823899939</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>23511.21010638298</v>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstancePolandV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G22" s="1">
+        <f>LOG(A22)</f>
+        <v/>
+      </c>
+      <c r="H22" s="1">
+        <f>LOG(C22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>75.3000476360321</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>35371979</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.03578899602473009</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>16811.77709125475</v>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceItalyV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G23" s="1">
+        <f>LOG(A23)</f>
+        <v/>
+      </c>
+      <c r="H23" s="1">
+        <f>LOG(C23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>1873.99765753746</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>2512</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>35386774</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.7460181757712819</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>14087.09156050955</v>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceFinlandV1.xlsx</t>
+        </is>
+      </c>
+      <c r="G24" s="1">
+        <f>LOG(A24)</f>
+        <v/>
+      </c>
+      <c r="H24" s="1">
+        <f>LOG(C24)</f>
+        <v/>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>NB : temps a été stopé pour récupérer le contrôle de la console et pouvoir avancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.3489663600921631</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1096</v>
+      </c>
+      <c r="C25" t="n">
+        <v>37564319</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0003183999635877401</v>
+      </c>
+      <c r="E25" t="n">
+        <v>34274.01368613139</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceBordeauxV2.xlsx</t>
+        </is>
+      </c>
+      <c r="G25">
+        <f>LOG(A25)</f>
+        <v/>
+      </c>
+      <c r="H25">
+        <f>LOG(C25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26">
+        <f>LOG(A26)</f>
+        <v/>
+      </c>
+      <c r="H26">
+        <f>LOG(C26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="G27">
+        <f>LOG(A27)</f>
+        <v/>
+      </c>
+      <c r="H27">
+        <f>LOG(C27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28">
+        <f>LOG(A28)</f>
+        <v/>
+      </c>
+      <c r="H28">
+        <f>LOG(C28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="G29">
+        <f>LOG(A29)</f>
+        <v/>
+      </c>
+      <c r="H29">
+        <f>LOG(C29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="G30">
+        <f>LOG(A30)</f>
+        <v/>
+      </c>
+      <c r="H30">
+        <f>LOG(C30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31">
+        <f>LOG(A31)</f>
+        <v/>
+      </c>
+      <c r="H31">
+        <f>LOG(C31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32">
+        <f>LOG(A32)</f>
+        <v/>
+      </c>
+      <c r="H32">
+        <f>LOG(C32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33">
+        <f>LOG(A33)</f>
+        <v/>
+      </c>
+      <c r="H33">
+        <f>LOG(C33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34">
+        <f>LOG(A34)</f>
+        <v/>
+      </c>
+      <c r="H34">
+        <f>LOG(C34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35">
+        <f>LOG(A35)</f>
+        <v/>
+      </c>
+      <c r="H35">
+        <f>LOG(C35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36">
+        <f>LOG(A36)</f>
+        <v/>
+      </c>
+      <c r="H36">
+        <f>LOG(C36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37">
+        <f>LOG(A37)</f>
+        <v/>
+      </c>
+      <c r="H37">
+        <f>LOG(C37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38">
+        <f>LOG(A38)</f>
+        <v/>
+      </c>
+      <c r="H38">
+        <f>LOG(C38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39">
+        <f>LOG(A39)</f>
+        <v/>
+      </c>
+      <c r="H39">
+        <f>LOG(C39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40">
+        <f>LOG(A40)</f>
+        <v/>
+      </c>
+      <c r="H40">
+        <f>LOG(C40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41">
+        <f>LOG(A41)</f>
+        <v/>
+      </c>
+      <c r="H41">
+        <f>LOG(C41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42">
+        <f>LOG(A42)</f>
+        <v/>
+      </c>
+      <c r="H42">
+        <f>LOG(C42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43">
+        <f>LOG(A43)</f>
+        <v/>
+      </c>
+      <c r="H43">
+        <f>LOG(C43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44">
+        <f>LOG(A44)</f>
+        <v/>
+      </c>
+      <c r="H44">
+        <f>LOG(C44)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45">
+        <f>LOG(A45)</f>
+        <v/>
+      </c>
+      <c r="H45">
+        <f>LOG(C45)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46">
+        <f>LOG(A46)</f>
+        <v/>
+      </c>
+      <c r="H46">
+        <f>LOG(C46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47">
+        <f>LOG(A47)</f>
+        <v/>
+      </c>
+      <c r="H47">
+        <f>LOG(C47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48">
+        <f>LOG(A48)</f>
+        <v/>
+      </c>
+      <c r="H48">
+        <f>LOG(C48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49">
+        <f>LOG(A49)</f>
+        <v/>
+      </c>
+      <c r="H49">
+        <f>LOG(C49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50">
+        <f>LOG(A50)</f>
+        <v/>
+      </c>
+      <c r="H50">
+        <f>LOG(C50)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="G51">
+        <f>LOG(A51)</f>
+        <v/>
+      </c>
+      <c r="H51">
+        <f>LOG(C51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="G52">
+        <f>LOG(A52)</f>
+        <v/>
+      </c>
+      <c r="H52">
+        <f>LOG(C52)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="G53">
+        <f>LOG(A53)</f>
+        <v/>
+      </c>
+      <c r="H53">
+        <f>LOG(C53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="G54">
+        <f>LOG(A54)</f>
+        <v/>
+      </c>
+      <c r="H54">
+        <f>LOG(C54)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="G55">
+        <f>LOG(A55)</f>
+        <v/>
+      </c>
+      <c r="H55">
+        <f>LOG(C55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="G56">
+        <f>LOG(A56)</f>
+        <v/>
+      </c>
+      <c r="H56">
+        <f>LOG(C56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="G57">
+        <f>LOG(A57)</f>
+        <v/>
+      </c>
+      <c r="H57">
+        <f>LOG(C57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="G58">
+        <f>LOG(A58)</f>
+        <v/>
+      </c>
+      <c r="H58">
+        <f>LOG(C58)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="G59">
+        <f>LOG(A59)</f>
+        <v/>
+      </c>
+      <c r="H59">
+        <f>LOG(C59)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="G60">
+        <f>LOG(A60)</f>
+        <v/>
+      </c>
+      <c r="H60">
+        <f>LOG(C60)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="G61">
+        <f>LOG(A61)</f>
+        <v/>
+      </c>
+      <c r="H61">
+        <f>LOG(C61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="G62">
+        <f>LOG(A62)</f>
+        <v/>
+      </c>
+      <c r="H62">
+        <f>LOG(C62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="G63">
+        <f>LOG(A63)</f>
+        <v/>
+      </c>
+      <c r="H63">
+        <f>LOG(C63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="G64">
+        <f>LOG(A64)</f>
+        <v/>
+      </c>
+      <c r="H64">
+        <f>LOG(C64)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="G65">
+        <f>LOG(A65)</f>
+        <v/>
+      </c>
+      <c r="H65">
+        <f>LOG(C65)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="G66">
+        <f>LOG(A66)</f>
+        <v/>
+      </c>
+      <c r="H66">
+        <f>LOG(C66)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="G67">
+        <f>LOG(A67)</f>
+        <v/>
+      </c>
+      <c r="H67">
+        <f>LOG(C67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="G68">
+        <f>LOG(A68)</f>
+        <v/>
+      </c>
+      <c r="H68">
+        <f>LOG(C68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69">
+        <f>LOG(A69)</f>
+        <v/>
+      </c>
+      <c r="H69">
+        <f>LOG(C69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="G70">
+        <f>LOG(A70)</f>
+        <v/>
+      </c>
+      <c r="H70">
+        <f>LOG(C70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71">
+        <f>LOG(A71)</f>
+        <v/>
+      </c>
+      <c r="H71">
+        <f>LOG(C71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="G72">
+        <f>LOG(A72)</f>
+        <v/>
+      </c>
+      <c r="H72">
+        <f>LOG(C72)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="G73">
+        <f>LOG(A73)</f>
+        <v/>
+      </c>
+      <c r="H73">
+        <f>LOG(C73)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="G74">
+        <f>LOG(A74)</f>
+        <v/>
+      </c>
+      <c r="H74">
+        <f>LOG(C74)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="G75">
+        <f>LOG(A75)</f>
+        <v/>
+      </c>
+      <c r="H75">
+        <f>LOG(C75)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="G76">
+        <f>LOG(A76)</f>
+        <v/>
+      </c>
+      <c r="H76">
+        <f>LOG(C76)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="G77">
+        <f>LOG(A77)</f>
+        <v/>
+      </c>
+      <c r="H77">
+        <f>LOG(C77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="G78">
+        <f>LOG(A78)</f>
+        <v/>
+      </c>
+      <c r="H78">
+        <f>LOG(C78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="G79">
+        <f>LOG(A79)</f>
+        <v/>
+      </c>
+      <c r="H79">
+        <f>LOG(C79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="G80">
+        <f>LOG(A80)</f>
+        <v/>
+      </c>
+      <c r="H80">
+        <f>LOG(C80)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81">
+        <f>LOG(A81)</f>
+        <v/>
+      </c>
+      <c r="H81">
+        <f>LOG(C81)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="G82">
+        <f>LOG(A82)</f>
+        <v/>
+      </c>
+      <c r="H82">
+        <f>LOG(C82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="G83">
+        <f>LOG(A83)</f>
+        <v/>
+      </c>
+      <c r="H83">
+        <f>LOG(C83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="G84">
+        <f>LOG(A84)</f>
+        <v/>
+      </c>
+      <c r="H84">
+        <f>LOG(C84)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="G85">
+        <f>LOG(A85)</f>
+        <v/>
+      </c>
+      <c r="H85">
+        <f>LOG(C85)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="G86">
+        <f>LOG(A86)</f>
+        <v/>
+      </c>
+      <c r="H86">
+        <f>LOG(C86)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="G87">
+        <f>LOG(A87)</f>
+        <v/>
+      </c>
+      <c r="H87">
+        <f>LOG(C87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="G88">
+        <f>LOG(A88)</f>
+        <v/>
+      </c>
+      <c r="H88">
+        <f>LOG(C88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="G89">
+        <f>LOG(A89)</f>
+        <v/>
+      </c>
+      <c r="H89">
+        <f>LOG(C89)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="G90">
+        <f>LOG(A90)</f>
+        <v/>
+      </c>
+      <c r="H90">
+        <f>LOG(C90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="G91">
+        <f>LOG(A91)</f>
+        <v/>
+      </c>
+      <c r="H91">
+        <f>LOG(C91)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="G92">
+        <f>LOG(A92)</f>
+        <v/>
+      </c>
+      <c r="H92">
+        <f>LOG(C92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="G93">
+        <f>LOG(A93)</f>
+        <v/>
+      </c>
+      <c r="H93">
+        <f>LOG(C93)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="G94">
+        <f>LOG(A94)</f>
+        <v/>
+      </c>
+      <c r="H94">
+        <f>LOG(C94)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95">
+        <f>LOG(A95)</f>
+        <v/>
+      </c>
+      <c r="H95">
+        <f>LOG(C95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96">
+        <f>LOG(A96)</f>
+        <v/>
+      </c>
+      <c r="H96">
+        <f>LOG(C96)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97">
+        <f>LOG(A97)</f>
+        <v/>
+      </c>
+      <c r="H97">
+        <f>LOG(C97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98">
+        <f>LOG(A98)</f>
+        <v/>
+      </c>
+      <c r="H98">
+        <f>LOG(C98)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="G99">
+        <f>LOG(A99)</f>
+        <v/>
+      </c>
+      <c r="H99">
+        <f>LOG(C99)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="G100">
+        <f>LOG(A100)</f>
+        <v/>
+      </c>
+      <c r="H100">
+        <f>LOG(C100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="G101">
+        <f>LOG(A101)</f>
+        <v/>
+      </c>
+      <c r="H101">
+        <f>LOG(C101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="G102">
+        <f>LOG(A102)</f>
+        <v/>
+      </c>
+      <c r="H102">
+        <f>LOG(C102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="G103">
+        <f>LOG(A103)</f>
+        <v/>
+      </c>
+      <c r="H103">
+        <f>LOG(C103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="G104">
+        <f>LOG(A104)</f>
+        <v/>
+      </c>
+      <c r="H104">
+        <f>LOG(C104)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="G105">
+        <f>LOG(A105)</f>
+        <v/>
+      </c>
+      <c r="H105">
+        <f>LOG(C105)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="G106">
+        <f>LOG(A106)</f>
+        <v/>
+      </c>
+      <c r="H106">
+        <f>LOG(C106)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="G107">
+        <f>LOG(A107)</f>
+        <v/>
+      </c>
+      <c r="H107">
+        <f>LOG(C107)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="G108">
+        <f>LOG(A108)</f>
+        <v/>
+      </c>
+      <c r="H108">
+        <f>LOG(C108)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="G109">
+        <f>LOG(A109)</f>
+        <v/>
+      </c>
+      <c r="H109">
+        <f>LOG(C109)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="G110">
+        <f>LOG(A110)</f>
+        <v/>
+      </c>
+      <c r="H110">
+        <f>LOG(C110)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="G111">
+        <f>LOG(A111)</f>
+        <v/>
+      </c>
+      <c r="H111">
+        <f>LOG(C111)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="G112">
+        <f>LOG(A112)</f>
+        <v/>
+      </c>
+      <c r="H112">
+        <f>LOG(C112)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="G113">
+        <f>LOG(A113)</f>
+        <v/>
+      </c>
+      <c r="H113">
+        <f>LOG(C113)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="G114">
+        <f>LOG(A114)</f>
+        <v/>
+      </c>
+      <c r="H114">
+        <f>LOG(C114)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="G115">
+        <f>LOG(A115)</f>
+        <v/>
+      </c>
+      <c r="H115">
+        <f>LOG(C115)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="G116">
+        <f>LOG(A116)</f>
+        <v/>
+      </c>
+      <c r="H116">
+        <f>LOG(C116)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="G117">
+        <f>LOG(A117)</f>
+        <v/>
+      </c>
+      <c r="H117">
+        <f>LOG(C117)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="G118">
+        <f>LOG(A118)</f>
+        <v/>
+      </c>
+      <c r="H118">
+        <f>LOG(C118)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="G119">
+        <f>LOG(A119)</f>
+        <v/>
+      </c>
+      <c r="H119">
+        <f>LOG(C119)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="G120">
+        <f>LOG(A120)</f>
+        <v/>
+      </c>
+      <c r="H120">
+        <f>LOG(C120)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="G121">
+        <f>LOG(A121)</f>
+        <v/>
+      </c>
+      <c r="H121">
+        <f>LOG(C121)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="G122">
+        <f>LOG(A122)</f>
+        <v/>
+      </c>
+      <c r="H122">
+        <f>LOG(C122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="G123">
+        <f>LOG(A123)</f>
+        <v/>
+      </c>
+      <c r="H123">
+        <f>LOG(C123)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="G124">
+        <f>LOG(A124)</f>
+        <v/>
+      </c>
+      <c r="H124">
+        <f>LOG(C124)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="G125">
+        <f>LOG(A125)</f>
+        <v/>
+      </c>
+      <c r="H125">
+        <f>LOG(C125)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="G126">
+        <f>LOG(A126)</f>
+        <v/>
+      </c>
+      <c r="H126">
+        <f>LOG(C126)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="G127">
+        <f>LOG(A127)</f>
+        <v/>
+      </c>
+      <c r="H127">
+        <f>LOG(C127)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="G128">
+        <f>LOG(A128)</f>
+        <v/>
+      </c>
+      <c r="H128">
+        <f>LOG(C128)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="G129">
+        <f>LOG(A129)</f>
+        <v/>
+      </c>
+      <c r="H129">
+        <f>LOG(C129)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="G130">
+        <f>LOG(A130)</f>
+        <v/>
+      </c>
+      <c r="H130">
+        <f>LOG(C130)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="G131">
+        <f>LOG(A131)</f>
+        <v/>
+      </c>
+      <c r="H131">
+        <f>LOG(C131)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="G132">
+        <f>LOG(A132)</f>
+        <v/>
+      </c>
+      <c r="H132">
+        <f>LOG(C132)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="G133">
+        <f>LOG(A133)</f>
+        <v/>
+      </c>
+      <c r="H133">
+        <f>LOG(C133)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="G134">
+        <f>LOG(A134)</f>
+        <v/>
+      </c>
+      <c r="H134">
+        <f>LOG(C134)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="G135">
+        <f>LOG(A135)</f>
+        <v/>
+      </c>
+      <c r="H135">
+        <f>LOG(C135)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="G136">
+        <f>LOG(A136)</f>
+        <v/>
+      </c>
+      <c r="H136">
+        <f>LOG(C136)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="G137">
+        <f>LOG(A137)</f>
+        <v/>
+      </c>
+      <c r="H137">
+        <f>LOG(C137)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="G138">
+        <f>LOG(A138)</f>
+        <v/>
+      </c>
+      <c r="H138">
+        <f>LOG(C138)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="G139">
+        <f>LOG(A139)</f>
+        <v/>
+      </c>
+      <c r="H139">
+        <f>LOG(C139)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="G140">
+        <f>LOG(A140)</f>
+        <v/>
+      </c>
+      <c r="H140">
+        <f>LOG(C140)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="G141">
+        <f>LOG(A141)</f>
+        <v/>
+      </c>
+      <c r="H141">
+        <f>LOG(C141)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="G142">
+        <f>LOG(A142)</f>
+        <v/>
+      </c>
+      <c r="H142">
+        <f>LOG(C142)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="G143">
+        <f>LOG(A143)</f>
+        <v/>
+      </c>
+      <c r="H143">
+        <f>LOG(C143)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="G144">
+        <f>LOG(A144)</f>
+        <v/>
+      </c>
+      <c r="H144">
+        <f>LOG(C144)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="G145">
+        <f>LOG(A145)</f>
+        <v/>
+      </c>
+      <c r="H145">
+        <f>LOG(C145)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="G146">
+        <f>LOG(A146)</f>
+        <v/>
+      </c>
+      <c r="H146">
+        <f>LOG(C146)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="G147">
+        <f>LOG(A147)</f>
+        <v/>
+      </c>
+      <c r="H147">
+        <f>LOG(C147)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="G148">
+        <f>LOG(A148)</f>
+        <v/>
+      </c>
+      <c r="H148">
+        <f>LOG(C148)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="G149">
+        <f>LOG(A149)</f>
+        <v/>
+      </c>
+      <c r="H149">
+        <f>LOG(C149)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="G150">
+        <f>LOG(A150)</f>
+        <v/>
+      </c>
+      <c r="H150">
+        <f>LOG(C150)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="G151">
+        <f>LOG(A151)</f>
+        <v/>
+      </c>
+      <c r="H151">
+        <f>LOG(C151)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="G152">
+        <f>LOG(A152)</f>
+        <v/>
+      </c>
+      <c r="H152">
+        <f>LOG(C152)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="G153">
+        <f>LOG(A153)</f>
+        <v/>
+      </c>
+      <c r="H153">
+        <f>LOG(C153)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="G154">
+        <f>LOG(A154)</f>
+        <v/>
+      </c>
+      <c r="H154">
+        <f>LOG(C154)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="G155">
+        <f>LOG(A155)</f>
+        <v/>
+      </c>
+      <c r="H155">
+        <f>LOG(C155)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="G156">
+        <f>LOG(A156)</f>
+        <v/>
+      </c>
+      <c r="H156">
+        <f>LOG(C156)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="G157">
+        <f>LOG(A157)</f>
+        <v/>
+      </c>
+      <c r="H157">
+        <f>LOG(C157)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="G158">
+        <f>LOG(A158)</f>
+        <v/>
+      </c>
+      <c r="H158">
+        <f>LOG(C158)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="G159">
+        <f>LOG(A159)</f>
+        <v/>
+      </c>
+      <c r="H159">
+        <f>LOG(C159)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="E5" zoomScale="140" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/performance2.xlsx
+++ b/performance2.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\_centrale supelec\cours 2A\ST optimisation transport\projet\projetST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C0D620-C75E-471F-AE2B-7E0EFA0C9D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B687F3FF-780D-4F36-A748-4D78B11D1796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="3864" windowWidth="7500" windowHeight="7176" xr2:uid="{DFDC1D18-6D4F-4D12-AD93-03290C40E70E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="analyse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
-    <t>KPI performance du programme</t>
+    <t>KPI performance du programme - Données</t>
   </si>
   <si>
     <t>temps d'execution</t>
@@ -46,23 +44,41 @@
     <t>taille des données d'entrée</t>
   </si>
   <si>
-    <t>temps d'exec/Taille donnée</t>
+    <t>Taille mémoire occupée (en octets)</t>
   </si>
   <si>
-    <t>Taille mémoire occupée</t>
+    <t>temps d'exec/Taille donnée</t>
   </si>
   <si>
     <t>taille mémoire/taille entrée</t>
   </si>
   <si>
-    <t>phase</t>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>log (tpsExec)</t>
+  </si>
+  <si>
+    <t>log(taillePg/tailleData)</t>
+  </si>
+  <si>
+    <t>lolo</t>
+  </si>
+  <si>
+    <t>Phase2/InstancesV2/InstanceAustriaV2.xlsx</t>
+  </si>
+  <si>
+    <t>Phase2/InstancesV2/InstanceBordeauxV2.xlsx</t>
+  </si>
+  <si>
+    <t>Phase2/InstancesV2/InstanceAustraliaV2.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +86,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,11 +125,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -108,6 +167,1389 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Analyse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> temps d'éxecution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>temps exec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$4:$B$272</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="269"/>
+                <c:pt idx="0">
+                  <c:v>3568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$4:$A$316</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="313"/>
+                <c:pt idx="0">
+                  <c:v>89.895516157150269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4282686710357666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40113377571105963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.11624002456665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.484257698059078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-188A-49B2-8B12-499C8037C0AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1600168543"/>
+        <c:axId val="1600163967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1600168543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Taille de l'instance d'entrée</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> (octet)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600163967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1600163967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps d'execution  (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600168543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Analyse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> taille de mémoire programme</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>taille mémoire</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$4:$B$446</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="443"/>
+                <c:pt idx="0">
+                  <c:v>3568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$4:$C$480</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="477"/>
+                <c:pt idx="0">
+                  <c:v>35391936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35300077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35391870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35321568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C97-4775-B670-F778C23C3C75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1600168543"/>
+        <c:axId val="1600163967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1600168543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="1" i="0" baseline="0"/>
+                  <a:t>Taille de l'instance d'entrée (octet)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600163967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1600163967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Taille de la mémoire utilisée par le programme (octet)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600168543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Analyse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> log(temps d'éxecution)/taille donnée</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>log (tps exec)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$4:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>3568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$4:$G$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+                <c:pt idx="0">
+                  <c:v>1.9537380303675909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.36828369420939644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.39671076861579663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.954803063093423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4546049061926494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4F7-4316-814C-9BA534EB52AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1600168543"/>
+        <c:axId val="1600163967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1600168543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Taille de</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> l'instance d'entrée</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600163967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1600163967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> (temps d'execution)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600168543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>644236</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140139</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749739</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17519</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,49 +1848,1539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7746B20-509B-4093-BB29-DE03236F5B48}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>89.895516157150269</v>
+      </c>
+      <c r="B4">
+        <v>3568</v>
+      </c>
+      <c r="C4">
+        <v>35391936</v>
+      </c>
+      <c r="D4">
+        <v>2.5194931658394131E-2</v>
+      </c>
+      <c r="E4">
+        <v>9919.2645739910313</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G14" si="0">LOG(A4)</f>
+        <v>1.9537380303675909</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H14" si="1">LOG(C4)</f>
+        <v>7.5489043199452315</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4282686710357666</v>
+      </c>
+      <c r="B5">
+        <v>1088</v>
+      </c>
+      <c r="C5">
+        <v>35299999</v>
+      </c>
+      <c r="D5">
+        <v>3.9362929323140308E-4</v>
+      </c>
+      <c r="E5">
+        <v>32444.852022058829</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-0.36828369420939644</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>7.5477746930848628</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.40113377571105963</v>
+      </c>
+      <c r="B6">
+        <v>1088</v>
+      </c>
+      <c r="C6">
+        <v>35300077</v>
+      </c>
+      <c r="D6">
+        <v>3.6868913208737089E-4</v>
+      </c>
+      <c r="E6">
+        <v>32444.92371323529</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.39671076861579663</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>7.5477756527146962</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>90.11624002456665</v>
+      </c>
+      <c r="B7">
+        <v>3568</v>
+      </c>
+      <c r="C7">
+        <v>35391870</v>
+      </c>
+      <c r="D7">
+        <v>2.5256793728858369E-2</v>
+      </c>
+      <c r="E7">
+        <v>9919.246076233183</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.954803063093423</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>7.5489035100584108</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>28.484257698059078</v>
+      </c>
+      <c r="B8">
+        <v>1688</v>
+      </c>
+      <c r="C8">
+        <v>35321568</v>
+      </c>
+      <c r="D8">
+        <v>1.6874560247665329E-2</v>
+      </c>
+      <c r="E8">
+        <v>20925.099526066351</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.4546049061926494</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>7.548039974595012</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G12" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G13" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G14" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G15" t="e">
+        <f t="shared" ref="G15:G46" si="2">LOG(A15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" ref="H15:H46" si="3">LOG(C15)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G16" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G20" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G21" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G22" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G23" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G24" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G25" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G26" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G27" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G28" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G29" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H29" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G30" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G31" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G32" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G33" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H33" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G34" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G35" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H35" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G36" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G37" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H37" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G38" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G39" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H39" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G40" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G41" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H41" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G42" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H42" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G43" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H43" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G44" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H44" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G45" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H45" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G46" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H46" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G47" t="e">
+        <f t="shared" ref="G47:G78" si="4">LOG(A47)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H47" t="e">
+        <f t="shared" ref="H47:H78" si="5">LOG(C47)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G48" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H48" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G49" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H49" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G50" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H50" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G51" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H51" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G52" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H52" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G53" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H53" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G54" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H54" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G55" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H55" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G56" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H56" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G57" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H57" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G58" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H58" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G59" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H59" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G60" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H60" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G61" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H61" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G62" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H62" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G63" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H63" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G64" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H64" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G65" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H65" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G66" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H66" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G67" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H67" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G68" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H68" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G69" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H69" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G70" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H70" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G71" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H71" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G72" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H72" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G73" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H73" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G74" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H74" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G75" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H75" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G76" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H76" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G77" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H77" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G78" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H78" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G79" t="e">
+        <f t="shared" ref="G79:G110" si="6">LOG(A79)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H79" t="e">
+        <f t="shared" ref="H79:H110" si="7">LOG(C79)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G80" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H80" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G81" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H81" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G82" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H82" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G83" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H83" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G84" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H84" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G85" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H85" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G86" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H86" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G87" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H87" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G88" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H88" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G89" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H89" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G90" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H90" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G91" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H91" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G92" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H92" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G93" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H93" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G94" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H94" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G95" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H95" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G96" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H96" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G97" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H97" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G98" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H98" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G99" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H99" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G100" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H100" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G101" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H101" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G102" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H102" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G103" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H103" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G104" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H104" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G105" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H105" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G106" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H106" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G107" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H107" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G108" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H108" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G109" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H109" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G110" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H110" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G111" t="e">
+        <f t="shared" ref="G111:G138" si="8">LOG(A111)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H111" t="e">
+        <f t="shared" ref="H111:H138" si="9">LOG(C111)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G112" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H112" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G113" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H113" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G114" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H114" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G115" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H115" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G116" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H116" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G117" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H117" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G118" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H118" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G119" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H119" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G120" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H120" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G121" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H121" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G122" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H122" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G123" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H123" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G124" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H124" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G125" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H125" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G126" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H126" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G127" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H127" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G128" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H128" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G129" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H129" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G130" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H130" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G131" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H131" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G132" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H132" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G133" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H133" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G134" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H134" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G135" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H135" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G136" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H136" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G137" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H137" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G138" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H138" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="E5" zoomScale="140" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/performance2.xlsx
+++ b/performance2.xlsx
@@ -2092,6 +2092,26 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="n">
+        <v>0.01605963706970215</v>
+      </c>
+      <c r="B11" t="n">
+        <v>504</v>
+      </c>
+      <c r="C11" t="n">
+        <v>56432511</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.186435926528204e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>111969.2678571429</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceAutunV2.xlsx</t>
+        </is>
+      </c>
       <c r="G11">
         <f>LOG(A11)</f>
         <v/>
@@ -2102,6 +2122,26 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="n">
+        <v>0.08091187477111816</v>
+      </c>
+      <c r="B12" t="n">
+        <v>928</v>
+      </c>
+      <c r="C12" t="n">
+        <v>56441487</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.718952022749802e-05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60820.56788793104</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G12">
         <f>LOG(A12)</f>
         <v/>
@@ -2112,6 +2152,26 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="n">
+        <v>0.04192447662353516</v>
+      </c>
+      <c r="B13" t="n">
+        <v>664</v>
+      </c>
+      <c r="C13" t="n">
+        <v>56438635</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.313927202339631e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>84997.94427710843</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceRambouilletV2.xlsx</t>
+        </is>
+      </c>
       <c r="G13">
         <f>LOG(A13)</f>
         <v/>
@@ -2122,6 +2182,26 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="n">
+        <v>0.03371214866638184</v>
+      </c>
+      <c r="B14" t="n">
+        <v>664</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56438633</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.077130823250277e-05</v>
+      </c>
+      <c r="E14" t="n">
+        <v>84997.94126506025</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceRambouilletV2.xlsx</t>
+        </is>
+      </c>
       <c r="G14">
         <f>LOG(A14)</f>
         <v/>
@@ -2132,6 +2212,26 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="n">
+        <v>0.2194175720214844</v>
+      </c>
+      <c r="B15" t="n">
+        <v>928</v>
+      </c>
+      <c r="C15" t="n">
+        <v>56441487</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0002364413491610823</v>
+      </c>
+      <c r="E15" t="n">
+        <v>60820.56788793104</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G15">
         <f>LOG(A15)</f>
         <v/>

--- a/performance2.xlsx
+++ b/performance2.xlsx
@@ -2242,6 +2242,26 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="n">
+        <v>0.5728318691253662</v>
+      </c>
+      <c r="B16" t="n">
+        <v>928</v>
+      </c>
+      <c r="C16" t="n">
+        <v>56441256</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0006172757210402653</v>
+      </c>
+      <c r="E16" t="n">
+        <v>60820.31896551724</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G16">
         <f>LOG(A16)</f>
         <v/>
@@ -2252,6 +2272,26 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="n">
+        <v>96.3099217414856</v>
+      </c>
+      <c r="B17" t="n">
+        <v>960</v>
+      </c>
+      <c r="C17" t="n">
+        <v>56449611</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1003228351473808</v>
+      </c>
+      <c r="E17" t="n">
+        <v>58801.678125</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceParisV2.xlsx</t>
+        </is>
+      </c>
       <c r="G17">
         <f>LOG(A17)</f>
         <v/>
@@ -2262,6 +2302,26 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="n">
+        <v>16.67476177215576</v>
+      </c>
+      <c r="B18" t="n">
+        <v>960</v>
+      </c>
+      <c r="C18" t="n">
+        <v>56449522</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01736954351266225</v>
+      </c>
+      <c r="E18" t="n">
+        <v>58801.58541666667</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceParisV2.xlsx</t>
+        </is>
+      </c>
       <c r="G18">
         <f>LOG(A18)</f>
         <v/>
@@ -2272,6 +2332,26 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="n">
+        <v>0.4544548988342285</v>
+      </c>
+      <c r="B19" t="n">
+        <v>928</v>
+      </c>
+      <c r="C19" t="n">
+        <v>56441637</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0004897143306403324</v>
+      </c>
+      <c r="E19" t="n">
+        <v>60820.72952586207</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G19">
         <f>LOG(A19)</f>
         <v/>
@@ -2282,6 +2362,26 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="n">
+        <v>0.4675056934356689</v>
+      </c>
+      <c r="B20" t="n">
+        <v>928</v>
+      </c>
+      <c r="C20" t="n">
+        <v>56441637</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0005037776868918847</v>
+      </c>
+      <c r="E20" t="n">
+        <v>60820.72952586207</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G20">
         <f>LOG(A20)</f>
         <v/>
@@ -2292,6 +2392,26 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="n">
+        <v>0.3738455772399902</v>
+      </c>
+      <c r="B21" t="n">
+        <v>928</v>
+      </c>
+      <c r="C21" t="n">
+        <v>56441526</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0004028508375430929</v>
+      </c>
+      <c r="E21" t="n">
+        <v>60820.6099137931</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G21">
         <f>LOG(A21)</f>
         <v/>
@@ -2302,6 +2422,26 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="n">
+        <v>0.4785053730010986</v>
+      </c>
+      <c r="B22" t="n">
+        <v>928</v>
+      </c>
+      <c r="C22" t="n">
+        <v>56441522</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0005156307898718735</v>
+      </c>
+      <c r="E22" t="n">
+        <v>60820.60560344828</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G22">
         <f>LOG(A22)</f>
         <v/>
@@ -2312,6 +2452,26 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="n">
+        <v>0.5269246101379395</v>
+      </c>
+      <c r="B23" t="n">
+        <v>928</v>
+      </c>
+      <c r="C23" t="n">
+        <v>56441661</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0005678066919589864</v>
+      </c>
+      <c r="E23" t="n">
+        <v>60820.75538793104</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G23">
         <f>LOG(A23)</f>
         <v/>
@@ -2322,6 +2482,26 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="n">
+        <v>0.6235852241516113</v>
+      </c>
+      <c r="B24" t="n">
+        <v>928</v>
+      </c>
+      <c r="C24" t="n">
+        <v>56441705</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0006719668363702709</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60820.80280172414</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G24">
         <f>LOG(A24)</f>
         <v/>
@@ -2332,6 +2512,26 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="n">
+        <v>0.6236388683319092</v>
+      </c>
+      <c r="B25" t="n">
+        <v>928</v>
+      </c>
+      <c r="C25" t="n">
+        <v>56441867</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0006720246425990401</v>
+      </c>
+      <c r="E25" t="n">
+        <v>60820.97737068965</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G25">
         <f>LOG(A25)</f>
         <v/>
@@ -2342,6 +2542,26 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="n">
+        <v>0.9392833709716797</v>
+      </c>
+      <c r="B26" t="n">
+        <v>928</v>
+      </c>
+      <c r="C26" t="n">
+        <v>56441867</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.001012158804926379</v>
+      </c>
+      <c r="E26" t="n">
+        <v>60820.97737068965</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G26">
         <f>LOG(A26)</f>
         <v/>
@@ -2352,6 +2572,26 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="n">
+        <v>0.9020981788635254</v>
+      </c>
+      <c r="B27" t="n">
+        <v>928</v>
+      </c>
+      <c r="C27" t="n">
+        <v>56441599</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0009720885548098334</v>
+      </c>
+      <c r="E27" t="n">
+        <v>60820.68857758621</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceContaminesV2.xlsx</t>
+        </is>
+      </c>
       <c r="G27">
         <f>LOG(A27)</f>
         <v/>
@@ -2362,6 +2602,26 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="n">
+        <v>269.0745387077332</v>
+      </c>
+      <c r="B28" t="n">
+        <v>960</v>
+      </c>
+      <c r="C28" t="n">
+        <v>56449832</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2802859778205554</v>
+      </c>
+      <c r="E28" t="n">
+        <v>58801.90833333333</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Phase2/InstancesV2/InstanceParisV2.xlsx</t>
+        </is>
+      </c>
       <c r="G28">
         <f>LOG(A28)</f>
         <v/>
